--- a/biology/Histoire de la zoologie et de la botanique/Pers/Pers..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pers/Pers..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christiaan Hendrik Persoon (1er février 1761, Stellenbosch en Afrique du Sud - 16 novembre 1836, Paris) est un scientifique et mycologue sud-africain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'origine néerlandaise par son père et allemande hottentote par sa mère, Persoon naît dans la province du Cap-Occidental. Sa mère meurt peu de temps après sa naissance.
 À l'âge de treize ans, son père l'envoie en Europe pour ses études ; il perd son père un an plus tard. Christiaan étudie d'abord la théologie, puis la médecine, et reçoit un doctorat honorifique en 1799. Après avoir séjourné à Leyde, fréquenté Göttingen, étudié la philosophie, la médecine et l’histoire naturelle, il s'installe à Paris en 1801, et y passe le reste de sa vie, louant l'étage supérieur d'une maison dans un quartier pauvre de la ville, assez méprisé par ses contemporains malgré sa renommée.
@@ -548,7 +562,9 @@
           <t>Œuvre mycologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est le spécialiste le plus reconnu de la mycologie pendant 30 ans; de la mort de Bulliard (1793) jusqu'à la publication de l'ouvrage fondamental d' Elias Fries : Systema mycologicum (1821).
 Les dix premières années (1796-1806), il publie sept ouvrages : Observationes mycologicae [2 vol. (1796-1799) XII + 223p. et 12 pl. color] ; Commentatio de fungis clavaeformibus [(1797) 124 p. et 4 pl. color] ; Tentamen dispositionis methodicae fungorum [(1797) IV + 76 et 4 pl. color];  Icones er descriptiones fungorum minus cognitorum [(1798-1800) 60 p. et 14 pl. color], suivies de Icones pictae rariorum fungorum [(1803-1806) 46 p. et 18 pl. color] ; Commentarius D.J.C. Schaefferi Fungorum Bavariae indigenorum icones pictas [(1800) 130 p. préface, index];  Synopsis methodica fungorum [(1801) XXX + 706 p. , index et 4 pl.] dont la classification sert de point de départ pour la nomenclature des Gastéromycètes. Deux autres ouvrages traitent des phanérogames : Synopsis plantarum (1805-1807) en deux volumes, qui donne, selon le système linnéen, une liste de tous les phanérogames connus à cette époque, et Species plantarum (1817-1821).
@@ -583,16 +599,18 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1801, il publie deux volumes du Synopsis methodica fungorum[1], point de départ de la nomenclature des Uredinales, Ustilaginales, et Gastéromycètes.
-De 1805 à 1807, il publie Synopsis plantarum[2], œuvre de vulgarisation décrivant 20 000 espèces de plantes.
-Il collabore à la partie mycologique du Species plantarum[3] de Carl von Linné et contribue à populariser la méthode linnéenne dans la mycologie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1801, il publie deux volumes du Synopsis methodica fungorum, point de départ de la nomenclature des Uredinales, Ustilaginales, et Gastéromycètes.
+De 1805 à 1807, il publie Synopsis plantarum, œuvre de vulgarisation décrivant 20 000 espèces de plantes.
+Il collabore à la partie mycologique du Species plantarum de Carl von Linné et contribue à populariser la méthode linnéenne dans la mycologie.
 Observationes mycologicae, édité en Allemagne en 1795.
 Synopsis plantarum, seu Enchiridion botanicum, 1805-1807.
 Icones Pictae, 1803-1806
 Icones et descriptiones fungorum minus cognitorum, 1799-1800.
-Traité sur les champignons comestibles, Paris, 1818[4].
+Traité sur les champignons comestibles, Paris, 1818.
 Mycologia europaea, 1822-1828.</t>
         </is>
       </c>
